--- a/results/tables/categories.xlsx
+++ b/results/tables/categories.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>exp_name</t>
   </si>
@@ -43,25 +43,169 @@
     <t>index</t>
   </si>
   <si>
+    <t>topological features</t>
+  </si>
+  <si>
+    <t>Dimensionality reduction</t>
+  </si>
+  <si>
     <t>time series embedding</t>
   </si>
   <si>
+    <t>transformers</t>
+  </si>
+  <si>
     <t>classical features</t>
   </si>
   <si>
+    <t>autoencoders</t>
+  </si>
+  <si>
     <t>ecomonic sectors</t>
   </si>
   <si>
-    <t>transformers</t>
-  </si>
-  <si>
-    <t>Dimensionality reduction</t>
-  </si>
-  <si>
-    <t>topological features</t>
-  </si>
-  <si>
-    <t>autoencoders</t>
+    <t>0.142</t>
+  </si>
+  <si>
+    <t>0.1373</t>
+  </si>
+  <si>
+    <t>0.2205</t>
+  </si>
+  <si>
+    <t>0.2871</t>
+  </si>
+  <si>
+    <t>0.2116</t>
+  </si>
+  <si>
+    <t>0.1853</t>
+  </si>
+  <si>
+    <t>0.2376</t>
+  </si>
+  <si>
+    <t>0.2049</t>
+  </si>
+  <si>
+    <t>0.0197</t>
+  </si>
+  <si>
+    <t>0.0666</t>
+  </si>
+  <si>
+    <t>0.0753</t>
+  </si>
+  <si>
+    <t>0.025</t>
+  </si>
+  <si>
+    <t>0.077</t>
+  </si>
+  <si>
+    <t>0.084</t>
+  </si>
+  <si>
+    <t>0.0655</t>
+  </si>
+  <si>
+    <t>0.0795</t>
+  </si>
+  <si>
+    <t>0.1363</t>
+  </si>
+  <si>
+    <t>0.1423</t>
+  </si>
+  <si>
+    <t>0.1929</t>
+  </si>
+  <si>
+    <t>0.2901</t>
+  </si>
+  <si>
+    <t>0.1695</t>
+  </si>
+  <si>
+    <t>0.1768</t>
+  </si>
+  <si>
+    <t>0.2058</t>
+  </si>
+  <si>
+    <t>0.1661</t>
+  </si>
+  <si>
+    <t>0.0436</t>
+  </si>
+  <si>
+    <t>0.1285</t>
+  </si>
+  <si>
+    <t>0.1103</t>
+  </si>
+  <si>
+    <t>0.0985</t>
+  </si>
+  <si>
+    <t>0.1489</t>
+  </si>
+  <si>
+    <t>0.1325</t>
+  </si>
+  <si>
+    <t>0.1438</t>
+  </si>
+  <si>
+    <t>0.1355</t>
+  </si>
+  <si>
+    <t>0.2892</t>
+  </si>
+  <si>
+    <t>0.3356</t>
+  </si>
+  <si>
+    <t>0.3613</t>
+  </si>
+  <si>
+    <t>0.3902</t>
+  </si>
+  <si>
+    <t>0.3907</t>
+  </si>
+  <si>
+    <t>0.392</t>
+  </si>
+  <si>
+    <t>0.3992</t>
+  </si>
+  <si>
+    <t>0.4155</t>
+  </si>
+  <si>
+    <t>0.0149</t>
+  </si>
+  <si>
+    <t>0.0639</t>
+  </si>
+  <si>
+    <t>0.0374</t>
+  </si>
+  <si>
+    <t>0.0726</t>
+  </si>
+  <si>
+    <t>0.0689</t>
+  </si>
+  <si>
+    <t>0.0514</t>
+  </si>
+  <si>
+    <t>0.068</t>
+  </si>
+  <si>
+    <t>0.0426</t>
   </si>
 </sst>
 </file>
@@ -474,184 +618,184 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>0.1420090343460232</v>
-      </c>
-      <c r="C4">
-        <v>0.0197342363416402</v>
-      </c>
-      <c r="D4">
-        <v>0.1363429571747554</v>
-      </c>
-      <c r="E4">
-        <v>0.0436380883207158</v>
-      </c>
-      <c r="F4">
-        <v>0.2891579863465406</v>
-      </c>
-      <c r="G4">
-        <v>0.0148583581647831</v>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>0.2871405512256548</v>
-      </c>
-      <c r="C5">
-        <v>0.0249552335486599</v>
-      </c>
-      <c r="D5">
-        <v>0.2900681382034154</v>
-      </c>
-      <c r="E5">
-        <v>0.0985114897646963</v>
-      </c>
-      <c r="F5">
-        <v>0.3902337513269383</v>
-      </c>
-      <c r="G5">
-        <v>0.07255449447857031</v>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>0.2674690322353537</v>
-      </c>
-      <c r="C6">
-        <v>0.0187361737457477</v>
-      </c>
-      <c r="D6">
-        <v>0.2433740951112096</v>
-      </c>
-      <c r="E6">
-        <v>0.1134661247536873</v>
-      </c>
-      <c r="F6">
-        <v>0.4037695572093138</v>
-      </c>
-      <c r="G6">
-        <v>0.0610944726317701</v>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
-        <v>0.2048960410258358</v>
-      </c>
-      <c r="C7">
-        <v>0.0795416849042862</v>
-      </c>
-      <c r="D7">
-        <v>0.1661202083439495</v>
-      </c>
-      <c r="E7">
-        <v>0.1355216810770249</v>
-      </c>
-      <c r="F7">
-        <v>0.4155331203134758</v>
-      </c>
-      <c r="G7">
-        <v>0.0426444996042953</v>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
-        <v>0.280571481840584</v>
-      </c>
-      <c r="C8">
-        <v>0.0465801278602264</v>
-      </c>
-      <c r="D8">
-        <v>0.236600474483728</v>
-      </c>
-      <c r="E8">
-        <v>0.1229417843714274</v>
-      </c>
-      <c r="F8">
-        <v>0.4194299110120963</v>
-      </c>
-      <c r="G8">
-        <v>0.0278122474631621</v>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
-        <v>0.2797845312484757</v>
-      </c>
-      <c r="C9">
-        <v>0.0443658181306311</v>
-      </c>
-      <c r="D9">
-        <v>0.2255695408103795</v>
-      </c>
-      <c r="E9">
-        <v>0.0780066699286858</v>
-      </c>
-      <c r="F9">
-        <v>0.425461890858486</v>
-      </c>
-      <c r="G9">
-        <v>0.0340401904042285</v>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
-        <v>0.3017721559438518</v>
-      </c>
-      <c r="C10">
-        <v>0.0416730158442645</v>
-      </c>
-      <c r="D10">
-        <v>0.2789144770738217</v>
-      </c>
-      <c r="E10">
-        <v>0.1258576570291621</v>
-      </c>
-      <c r="F10">
-        <v>0.4269715746571834</v>
-      </c>
-      <c r="G10">
-        <v>0.0686958169780541</v>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
-        <v>0.3165657483088666</v>
-      </c>
-      <c r="C11">
-        <v>0.0430274314247788</v>
-      </c>
-      <c r="D11">
-        <v>0.2404121963758776</v>
-      </c>
-      <c r="E11">
-        <v>0.1134655216158095</v>
-      </c>
-      <c r="F11">
-        <v>0.4502598718644206</v>
-      </c>
-      <c r="G11">
-        <v>0.0551885903196793</v>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/results/tables/categories.xlsx
+++ b/results/tables/categories.xlsx
@@ -40,12 +40,12 @@
     <t>category</t>
   </si>
   <si>
+    <t>topological features</t>
+  </si>
+  <si>
     <t>index</t>
   </si>
   <si>
-    <t>topological features</t>
-  </si>
-  <si>
     <t>Dimensionality reduction</t>
   </si>
   <si>
@@ -64,16 +64,16 @@
     <t>ecomonic sectors</t>
   </si>
   <si>
+    <t>0.1373</t>
+  </si>
+  <si>
     <t>0.142</t>
   </si>
   <si>
-    <t>0.1373</t>
-  </si>
-  <si>
     <t>0.2205</t>
   </si>
   <si>
-    <t>0.2871</t>
+    <t>0.2016</t>
   </si>
   <si>
     <t>0.2116</t>
@@ -88,16 +88,16 @@
     <t>0.2049</t>
   </si>
   <si>
+    <t>0.0666</t>
+  </si>
+  <si>
     <t>0.0197</t>
   </si>
   <si>
-    <t>0.0666</t>
-  </si>
-  <si>
     <t>0.0753</t>
   </si>
   <si>
-    <t>0.025</t>
+    <t>0.0707</t>
   </si>
   <si>
     <t>0.077</t>
@@ -112,16 +112,16 @@
     <t>0.0795</t>
   </si>
   <si>
+    <t>0.1338</t>
+  </si>
+  <si>
     <t>0.1363</t>
   </si>
   <si>
-    <t>0.1423</t>
-  </si>
-  <si>
     <t>0.1929</t>
   </si>
   <si>
-    <t>0.2901</t>
+    <t>0.179</t>
   </si>
   <si>
     <t>0.1695</t>
@@ -136,16 +136,16 @@
     <t>0.1661</t>
   </si>
   <si>
+    <t>0.0716</t>
+  </si>
+  <si>
     <t>0.0436</t>
   </si>
   <si>
-    <t>0.1285</t>
-  </si>
-  <si>
     <t>0.1103</t>
   </si>
   <si>
-    <t>0.0985</t>
+    <t>0.081</t>
   </si>
   <si>
     <t>0.1489</t>
@@ -160,12 +160,12 @@
     <t>0.1355</t>
   </si>
   <si>
+    <t>0.278</t>
+  </si>
+  <si>
     <t>0.2892</t>
   </si>
   <si>
-    <t>0.3356</t>
-  </si>
-  <si>
     <t>0.3613</t>
   </si>
   <si>
@@ -184,10 +184,10 @@
     <t>0.4155</t>
   </si>
   <si>
+    <t>0.0304</t>
+  </si>
+  <si>
     <t>0.0149</t>
-  </si>
-  <si>
-    <t>0.0639</t>
   </si>
   <si>
     <t>0.0374</t>

--- a/results/tables/categories.xlsx
+++ b/results/tables/categories.xlsx
@@ -64,7 +64,7 @@
     <t>ecomonic sectors</t>
   </si>
   <si>
-    <t>0.1373</t>
+    <t>0.1431</t>
   </si>
   <si>
     <t>0.142</t>
@@ -88,7 +88,7 @@
     <t>0.2049</t>
   </si>
   <si>
-    <t>0.0666</t>
+    <t>0.1168</t>
   </si>
   <si>
     <t>0.0197</t>

--- a/results/tables/categories.xlsx
+++ b/results/tables/categories.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
   <si>
     <t>exp_name</t>
   </si>
@@ -40,6 +40,9 @@
     <t>category</t>
   </si>
   <si>
+    <t>emb_model</t>
+  </si>
+  <si>
     <t>topological features</t>
   </si>
   <si>
@@ -49,19 +52,43 @@
     <t>Dimensionality reduction</t>
   </si>
   <si>
+    <t>classical features</t>
+  </si>
+  <si>
+    <t>transformers</t>
+  </si>
+  <si>
+    <t>autoencoders</t>
+  </si>
+  <si>
+    <t>ecomonic sectors</t>
+  </si>
+  <si>
     <t>time series embedding</t>
   </si>
   <si>
-    <t>transformers</t>
-  </si>
-  <si>
-    <t>classical features</t>
-  </si>
-  <si>
-    <t>autoencoders</t>
-  </si>
-  <si>
-    <t>ecomonic sectors</t>
+    <t>PersImage_1_new</t>
+  </si>
+  <si>
+    <t>sp500</t>
+  </si>
+  <si>
+    <t>fastica</t>
+  </si>
+  <si>
+    <t>table_finance_features</t>
+  </si>
+  <si>
+    <t>transformer_embds5</t>
+  </si>
+  <si>
+    <t>autoencoder_lstm</t>
+  </si>
+  <si>
+    <t>sectors</t>
+  </si>
+  <si>
+    <t>signal2vec_embds</t>
   </si>
   <si>
     <t>0.1431</t>
@@ -70,96 +97,96 @@
     <t>0.142</t>
   </si>
   <si>
-    <t>0.2205</t>
+    <t>0.2798</t>
+  </si>
+  <si>
+    <t>0.1853</t>
+  </si>
+  <si>
+    <t>0.2116</t>
+  </si>
+  <si>
+    <t>0.2376</t>
+  </si>
+  <si>
+    <t>0.2049</t>
   </si>
   <si>
     <t>0.2016</t>
   </si>
   <si>
-    <t>0.2116</t>
-  </si>
-  <si>
-    <t>0.1853</t>
-  </si>
-  <si>
-    <t>0.2376</t>
-  </si>
-  <si>
-    <t>0.2049</t>
-  </si>
-  <si>
     <t>0.1168</t>
   </si>
   <si>
     <t>0.0197</t>
   </si>
   <si>
-    <t>0.0753</t>
+    <t>0.0444</t>
+  </si>
+  <si>
+    <t>0.084</t>
+  </si>
+  <si>
+    <t>0.077</t>
+  </si>
+  <si>
+    <t>0.0655</t>
+  </si>
+  <si>
+    <t>0.0795</t>
   </si>
   <si>
     <t>0.0707</t>
   </si>
   <si>
-    <t>0.077</t>
-  </si>
-  <si>
-    <t>0.084</t>
-  </si>
-  <si>
-    <t>0.0655</t>
-  </si>
-  <si>
-    <t>0.0795</t>
-  </si>
-  <si>
     <t>0.1338</t>
   </si>
   <si>
     <t>0.1363</t>
   </si>
   <si>
-    <t>0.1929</t>
+    <t>0.2256</t>
+  </si>
+  <si>
+    <t>0.1768</t>
+  </si>
+  <si>
+    <t>0.1601</t>
+  </si>
+  <si>
+    <t>0.219</t>
+  </si>
+  <si>
+    <t>0.1661</t>
   </si>
   <si>
     <t>0.179</t>
   </si>
   <si>
-    <t>0.1695</t>
-  </si>
-  <si>
-    <t>0.1768</t>
-  </si>
-  <si>
-    <t>0.2058</t>
-  </si>
-  <si>
-    <t>0.1661</t>
-  </si>
-  <si>
     <t>0.0716</t>
   </si>
   <si>
     <t>0.0436</t>
   </si>
   <si>
-    <t>0.1103</t>
+    <t>0.078</t>
+  </si>
+  <si>
+    <t>0.1325</t>
+  </si>
+  <si>
+    <t>0.1589</t>
+  </si>
+  <si>
+    <t>0.1214</t>
+  </si>
+  <si>
+    <t>0.1355</t>
   </si>
   <si>
     <t>0.081</t>
   </si>
   <si>
-    <t>0.1489</t>
-  </si>
-  <si>
-    <t>0.1325</t>
-  </si>
-  <si>
-    <t>0.1438</t>
-  </si>
-  <si>
-    <t>0.1355</t>
-  </si>
-  <si>
     <t>0.278</t>
   </si>
   <si>
@@ -169,21 +196,21 @@
     <t>0.3613</t>
   </si>
   <si>
-    <t>0.3902</t>
-  </si>
-  <si>
-    <t>0.3907</t>
-  </si>
-  <si>
     <t>0.392</t>
   </si>
   <si>
+    <t>0.3934</t>
+  </si>
+  <si>
     <t>0.3992</t>
   </si>
   <si>
     <t>0.4155</t>
   </si>
   <si>
+    <t>0.4227</t>
+  </si>
+  <si>
     <t>0.0304</t>
   </si>
   <si>
@@ -193,19 +220,19 @@
     <t>0.0374</t>
   </si>
   <si>
-    <t>0.0726</t>
-  </si>
-  <si>
-    <t>0.0689</t>
-  </si>
-  <si>
     <t>0.0514</t>
   </si>
   <si>
+    <t>0.0661</t>
+  </si>
+  <si>
     <t>0.068</t>
   </si>
   <si>
     <t>0.0426</t>
+  </si>
+  <si>
+    <t>0.0399</t>
   </si>
 </sst>
 </file>
@@ -563,246 +590,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D11" t="s">
         <v>40</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E11" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F11" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
-      </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="H11" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/tables/categories.xlsx
+++ b/results/tables/categories.xlsx
@@ -64,7 +64,7 @@
     <t>ecomonic sectors</t>
   </si>
   <si>
-    <t>time series embedding</t>
+    <t>NN embedding</t>
   </si>
   <si>
     <t>PersImage_1_new</t>
